--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Ltf-Lrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Ltf-Lrp1.xlsx
@@ -76,28 +76,28 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Ltf</t>
+  </si>
+  <si>
+    <t>Lrp1</t>
+  </si>
+  <si>
     <t>ECs</t>
   </si>
   <si>
-    <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Ltf</t>
-  </si>
-  <si>
-    <t>Lrp1</t>
-  </si>
-  <si>
     <t>FAPs</t>
   </si>
   <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
   </si>
 </sst>
 </file>
@@ -534,25 +534,25 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.07123500000000001</v>
+        <v>0.4150643333333333</v>
       </c>
       <c r="H2">
-        <v>0.14247</v>
+        <v>1.245193</v>
       </c>
       <c r="I2">
-        <v>0.3533201730021427</v>
+        <v>0.02396302145531912</v>
       </c>
       <c r="J2">
-        <v>0.2669912464651349</v>
+        <v>0.02396302145531911</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.019046</v>
+        <v>10.836393</v>
       </c>
       <c r="N2">
-        <v>4.038092</v>
+        <v>21.672786</v>
       </c>
       <c r="O2">
-        <v>0.003975353327590414</v>
+        <v>0.01846862257356514</v>
       </c>
       <c r="P2">
-        <v>0.002707057536954368</v>
+        <v>0.01262296693390161</v>
       </c>
       <c r="Q2">
-        <v>0.14382674181</v>
+        <v>4.497800236283</v>
       </c>
       <c r="R2">
-        <v>0.5753069672400001</v>
+        <v>26.986801417698</v>
       </c>
       <c r="S2">
-        <v>0.001404572525448889</v>
+        <v>0.0004425639989805323</v>
       </c>
       <c r="T2">
-        <v>0.0007227606660442846</v>
+        <v>0.0003024844274668679</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,25 +596,25 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.07123500000000001</v>
+        <v>0.4150643333333333</v>
       </c>
       <c r="H3">
-        <v>0.14247</v>
+        <v>1.245193</v>
       </c>
       <c r="I3">
-        <v>0.3533201730021427</v>
+        <v>0.02396302145531912</v>
       </c>
       <c r="J3">
-        <v>0.2669912464651349</v>
+        <v>0.02396302145531911</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>419.0844499999999</v>
       </c>
       <c r="O3">
-        <v>0.2750488370661026</v>
+        <v>0.2380839126543345</v>
       </c>
       <c r="P3">
-        <v>0.2809459811695414</v>
+        <v>0.2440890227431923</v>
       </c>
       <c r="Q3">
-        <v>9.95116026525</v>
+        <v>57.98233594987221</v>
       </c>
       <c r="R3">
-        <v>59.7069615915</v>
+        <v>521.8410235488499</v>
       </c>
       <c r="S3">
-        <v>0.09718030269623353</v>
+        <v>0.005705209907102141</v>
       </c>
       <c r="T3">
-        <v>0.07501011770182617</v>
+        <v>0.005849110489002993</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,25 +658,25 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.07123500000000001</v>
+        <v>0.4150643333333333</v>
       </c>
       <c r="H4">
-        <v>0.14247</v>
+        <v>1.245193</v>
       </c>
       <c r="I4">
-        <v>0.3533201730021427</v>
+        <v>0.02396302145531912</v>
       </c>
       <c r="J4">
-        <v>0.2669912464651349</v>
+        <v>0.02396302145531911</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>186.3548536666667</v>
+        <v>150.12088</v>
       </c>
       <c r="N4">
-        <v>559.064561</v>
+        <v>450.36264</v>
       </c>
       <c r="O4">
-        <v>0.3669190239530987</v>
+        <v>0.2558532043948076</v>
       </c>
       <c r="P4">
-        <v>0.3747858972750336</v>
+        <v>0.2623065033256284</v>
       </c>
       <c r="Q4">
-        <v>13.274988000945</v>
+        <v>62.30982297661333</v>
       </c>
       <c r="R4">
-        <v>79.64992800567001</v>
+        <v>560.78840678952</v>
       </c>
       <c r="S4">
-        <v>0.1296398930208862</v>
+        <v>0.006131015826324923</v>
       </c>
       <c r="T4">
-        <v>0.1000645538710152</v>
+        <v>0.006285656367061769</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,25 +720,25 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.07123500000000001</v>
+        <v>0.4150643333333333</v>
       </c>
       <c r="H5">
-        <v>0.14247</v>
+        <v>1.245193</v>
       </c>
       <c r="I5">
-        <v>0.3533201730021427</v>
+        <v>0.02396302145531912</v>
       </c>
       <c r="J5">
-        <v>0.2669912464651349</v>
+        <v>0.02396302145531911</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>29.9633245</v>
+        <v>32.469223</v>
       </c>
       <c r="N5">
-        <v>59.926649</v>
+        <v>64.938446</v>
       </c>
       <c r="O5">
-        <v>0.05899558591371686</v>
+        <v>0.05533777012737728</v>
       </c>
       <c r="P5">
-        <v>0.04017364805949665</v>
+        <v>0.03782235733776705</v>
       </c>
       <c r="Q5">
-        <v>2.1344374207575</v>
+        <v>13.47681639834633</v>
       </c>
       <c r="R5">
-        <v>8.53774968303</v>
+        <v>80.86089839007799</v>
       </c>
       <c r="S5">
-        <v>0.02084433062139722</v>
+        <v>0.001326060172851859</v>
       </c>
       <c r="T5">
-        <v>0.01072601237045666</v>
+        <v>0.0009063379603756581</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,25 +782,25 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.07123500000000001</v>
+        <v>0.4150643333333333</v>
       </c>
       <c r="H6">
-        <v>0.14247</v>
+        <v>1.245193</v>
       </c>
       <c r="I6">
-        <v>0.3533201730021427</v>
+        <v>0.02396302145531912</v>
       </c>
       <c r="J6">
-        <v>0.2669912464651349</v>
+        <v>0.02396302145531911</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.253715333333333</v>
+        <v>52.09024033333333</v>
       </c>
       <c r="N6">
-        <v>18.761146</v>
+        <v>156.270721</v>
       </c>
       <c r="O6">
-        <v>0.01231310631861278</v>
+        <v>0.08877815602319267</v>
       </c>
       <c r="P6">
-        <v>0.0125771036621259</v>
+        <v>0.09101737745760805</v>
       </c>
       <c r="Q6">
-        <v>0.44548341177</v>
+        <v>21.62080087712811</v>
       </c>
       <c r="R6">
-        <v>2.67290047062</v>
+        <v>194.587207894153</v>
       </c>
       <c r="S6">
-        <v>0.004350468854686045</v>
+        <v>0.002127392857547434</v>
       </c>
       <c r="T6">
-        <v>0.003357976583672206</v>
+        <v>0.00218105136882354</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,22 +847,22 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.07123500000000001</v>
+        <v>0.4150643333333333</v>
       </c>
       <c r="H7">
-        <v>0.14247</v>
+        <v>1.245193</v>
       </c>
       <c r="I7">
-        <v>0.3533201730021427</v>
+        <v>0.02396302145531912</v>
       </c>
       <c r="J7">
-        <v>0.2669912464651349</v>
+        <v>0.02396302145531911</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>143.6051993333333</v>
+        <v>201.5345866666667</v>
       </c>
       <c r="N7">
-        <v>430.815598</v>
+        <v>604.60376</v>
       </c>
       <c r="O7">
-        <v>0.2827480934208786</v>
+        <v>0.3434783342267227</v>
       </c>
       <c r="P7">
-        <v>0.2888103122968479</v>
+        <v>0.3521417722019025</v>
       </c>
       <c r="Q7">
-        <v>10.22971637451</v>
+        <v>83.64981885840888</v>
       </c>
       <c r="R7">
-        <v>61.37829824706001</v>
+        <v>752.84836972568</v>
       </c>
       <c r="S7">
-        <v>0.09990060528349086</v>
+        <v>0.008230778692512227</v>
       </c>
       <c r="T7">
-        <v>0.07710982527212031</v>
+        <v>0.008438380842588286</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,25 +906,25 @@
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.1049536666666667</v>
+        <v>16.787094</v>
       </c>
       <c r="H8">
-        <v>0.314861</v>
+        <v>50.361282</v>
       </c>
       <c r="I8">
-        <v>0.5205621908314155</v>
+        <v>0.9691738397849783</v>
       </c>
       <c r="J8">
-        <v>0.590054964927766</v>
+        <v>0.9691738397849782</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.019046</v>
+        <v>10.836393</v>
       </c>
       <c r="N8">
-        <v>4.038092</v>
+        <v>21.672786</v>
       </c>
       <c r="O8">
-        <v>0.003975353327590414</v>
+        <v>0.01846862257356514</v>
       </c>
       <c r="P8">
-        <v>0.002707057536954368</v>
+        <v>0.01262296693390161</v>
       </c>
       <c r="Q8">
-        <v>0.2119062808686667</v>
+        <v>181.911547911942</v>
       </c>
       <c r="R8">
-        <v>1.271437685212</v>
+        <v>1091.469287471652</v>
       </c>
       <c r="S8">
-        <v>0.002069418637539424</v>
+        <v>0.01789930585516165</v>
       </c>
       <c r="T8">
-        <v>0.001597312740025054</v>
+        <v>0.01223384933280823</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,25 +968,25 @@
         <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.1049536666666667</v>
+        <v>16.787094</v>
       </c>
       <c r="H9">
-        <v>0.314861</v>
+        <v>50.361282</v>
       </c>
       <c r="I9">
-        <v>0.5205621908314155</v>
+        <v>0.9691738397849783</v>
       </c>
       <c r="J9">
-        <v>0.590054964927766</v>
+        <v>0.9691738397849782</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>419.0844499999999</v>
       </c>
       <c r="O9">
-        <v>0.2750488370661026</v>
+        <v>0.2380839126543345</v>
       </c>
       <c r="P9">
-        <v>0.2809459811695414</v>
+        <v>0.2440890227431923</v>
       </c>
       <c r="Q9">
-        <v>14.66148322349444</v>
+        <v>2345.070018696099</v>
       </c>
       <c r="R9">
-        <v>131.95334901145</v>
+        <v>21105.6301682649</v>
       </c>
       <c r="S9">
-        <v>0.1431800252087634</v>
+        <v>0.2307446998182328</v>
       </c>
       <c r="T9">
-        <v>0.1657735710655905</v>
+        <v>0.2365646954213826</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,25 +1030,25 @@
         <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.1049536666666667</v>
+        <v>16.787094</v>
       </c>
       <c r="H10">
-        <v>0.314861</v>
+        <v>50.361282</v>
       </c>
       <c r="I10">
-        <v>0.5205621908314155</v>
+        <v>0.9691738397849783</v>
       </c>
       <c r="J10">
-        <v>0.590054964927766</v>
+        <v>0.9691738397849782</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>186.3548536666667</v>
+        <v>150.12088</v>
       </c>
       <c r="N10">
-        <v>559.064561</v>
+        <v>450.36264</v>
       </c>
       <c r="O10">
-        <v>0.3669190239530987</v>
+        <v>0.2558532043948076</v>
       </c>
       <c r="P10">
-        <v>0.3747858972750336</v>
+        <v>0.2623065033256284</v>
       </c>
       <c r="Q10">
-        <v>19.55862519344678</v>
+        <v>2520.09332392272</v>
       </c>
       <c r="R10">
-        <v>176.027626741021</v>
+        <v>22680.83991530448</v>
       </c>
       <c r="S10">
-        <v>0.1910041709667497</v>
+        <v>0.2479662325246066</v>
       </c>
       <c r="T10">
-        <v>0.2211442794720413</v>
+        <v>0.2542206010286704</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,25 +1092,25 @@
         <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.1049536666666667</v>
+        <v>16.787094</v>
       </c>
       <c r="H11">
-        <v>0.314861</v>
+        <v>50.361282</v>
       </c>
       <c r="I11">
-        <v>0.5205621908314155</v>
+        <v>0.9691738397849783</v>
       </c>
       <c r="J11">
-        <v>0.590054964927766</v>
+        <v>0.9691738397849782</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>29.9633245</v>
+        <v>32.469223</v>
       </c>
       <c r="N11">
-        <v>59.926649</v>
+        <v>64.938446</v>
       </c>
       <c r="O11">
-        <v>0.05899558591371686</v>
+        <v>0.05533777012737728</v>
       </c>
       <c r="P11">
-        <v>0.04017364805949665</v>
+        <v>0.03782235733776705</v>
       </c>
       <c r="Q11">
-        <v>3.144760771798166</v>
+        <v>545.063898607962</v>
       </c>
       <c r="R11">
-        <v>18.868564630789</v>
+        <v>3270.383391647772</v>
       </c>
       <c r="S11">
-        <v>0.03071087145262745</v>
+        <v>0.0536319191594887</v>
       </c>
       <c r="T11">
-        <v>0.02370466049676671</v>
+        <v>0.03665643929076324</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,25 +1154,25 @@
         <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.1049536666666667</v>
+        <v>16.787094</v>
       </c>
       <c r="H12">
-        <v>0.314861</v>
+        <v>50.361282</v>
       </c>
       <c r="I12">
-        <v>0.5205621908314155</v>
+        <v>0.9691738397849783</v>
       </c>
       <c r="J12">
-        <v>0.590054964927766</v>
+        <v>0.9691738397849782</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>6.253715333333333</v>
+        <v>52.09024033333333</v>
       </c>
       <c r="N12">
-        <v>18.761146</v>
+        <v>156.270721</v>
       </c>
       <c r="O12">
-        <v>0.01231310631861278</v>
+        <v>0.08877815602319267</v>
       </c>
       <c r="P12">
-        <v>0.0125771036621259</v>
+        <v>0.09101737745760805</v>
       </c>
       <c r="Q12">
-        <v>0.6563503545228888</v>
+        <v>874.4437609582578</v>
       </c>
       <c r="R12">
-        <v>5.907153190706</v>
+        <v>7869.993848624322</v>
       </c>
       <c r="S12">
-        <v>0.006409737601157215</v>
+        <v>0.08604146636202753</v>
       </c>
       <c r="T12">
-        <v>0.007421182460248575</v>
+        <v>0.0882116611977487</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,22 +1219,22 @@
         <v>22</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.1049536666666667</v>
+        <v>16.787094</v>
       </c>
       <c r="H13">
-        <v>0.314861</v>
+        <v>50.361282</v>
       </c>
       <c r="I13">
-        <v>0.5205621908314155</v>
+        <v>0.9691738397849783</v>
       </c>
       <c r="J13">
-        <v>0.590054964927766</v>
+        <v>0.9691738397849782</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>143.6051993333333</v>
+        <v>201.5345866666667</v>
       </c>
       <c r="N13">
-        <v>430.815598</v>
+        <v>604.60376</v>
       </c>
       <c r="O13">
-        <v>0.2827480934208786</v>
+        <v>0.3434783342267227</v>
       </c>
       <c r="P13">
-        <v>0.2888103122968479</v>
+        <v>0.3521417722019025</v>
       </c>
       <c r="Q13">
-        <v>15.07189222243089</v>
+        <v>3383.18005062448</v>
       </c>
       <c r="R13">
-        <v>135.647030001878</v>
+        <v>30448.62045562032</v>
       </c>
       <c r="S13">
-        <v>0.1471879669645783</v>
+        <v>0.332890216065461</v>
       </c>
       <c r="T13">
-        <v>0.1704139586930938</v>
+        <v>0.341286593513605</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,25 +1278,25 @@
         <v>24</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.02542733333333333</v>
+        <v>0.1188766666666667</v>
       </c>
       <c r="H14">
-        <v>0.076282</v>
+        <v>0.35663</v>
       </c>
       <c r="I14">
-        <v>0.1261176361664418</v>
+        <v>0.006863138759702679</v>
       </c>
       <c r="J14">
-        <v>0.1429537886070991</v>
+        <v>0.006863138759702677</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.019046</v>
+        <v>10.836393</v>
       </c>
       <c r="N14">
-        <v>4.038092</v>
+        <v>21.672786</v>
       </c>
       <c r="O14">
-        <v>0.003975353327590414</v>
+        <v>0.01846862257356514</v>
       </c>
       <c r="P14">
-        <v>0.002707057536954368</v>
+        <v>0.01262296693390161</v>
       </c>
       <c r="Q14">
-        <v>0.05133895565733333</v>
+        <v>1.28819427853</v>
       </c>
       <c r="R14">
-        <v>0.308033733944</v>
+        <v>7.729165671180001</v>
       </c>
       <c r="S14">
-        <v>0.0005013621646021016</v>
+        <v>0.0001267527194229547</v>
       </c>
       <c r="T14">
-        <v>0.0003869841308850292</v>
+        <v>8.663317362650538E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,25 +1340,25 @@
         <v>24</v>
       </c>
       <c r="D15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.02542733333333333</v>
+        <v>0.1188766666666667</v>
       </c>
       <c r="H15">
-        <v>0.076282</v>
+        <v>0.35663</v>
       </c>
       <c r="I15">
-        <v>0.1261176361664418</v>
+        <v>0.006863138759702679</v>
       </c>
       <c r="J15">
-        <v>0.1429537886070991</v>
+        <v>0.006863138759702677</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>419.0844499999999</v>
       </c>
       <c r="O15">
-        <v>0.2750488370661026</v>
+        <v>0.2380839126543345</v>
       </c>
       <c r="P15">
-        <v>0.2809459811695414</v>
+        <v>0.2440890227431923</v>
       </c>
       <c r="Q15">
-        <v>3.552066668322222</v>
+        <v>16.60645415594444</v>
       </c>
       <c r="R15">
-        <v>31.9686000149</v>
+        <v>149.4580874035</v>
       </c>
       <c r="S15">
-        <v>0.03468850916110566</v>
+        <v>0.001634002928999631</v>
       </c>
       <c r="T15">
-        <v>0.04016229240212468</v>
+        <v>0.001675216832806752</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,25 +1402,25 @@
         <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.02542733333333333</v>
+        <v>0.1188766666666667</v>
       </c>
       <c r="H16">
-        <v>0.076282</v>
+        <v>0.35663</v>
       </c>
       <c r="I16">
-        <v>0.1261176361664418</v>
+        <v>0.006863138759702679</v>
       </c>
       <c r="J16">
-        <v>0.1429537886070991</v>
+        <v>0.006863138759702677</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>186.3548536666667</v>
+        <v>150.12088</v>
       </c>
       <c r="N16">
-        <v>559.064561</v>
+        <v>450.36264</v>
       </c>
       <c r="O16">
-        <v>0.3669190239530987</v>
+        <v>0.2558532043948076</v>
       </c>
       <c r="P16">
-        <v>0.3747858972750336</v>
+        <v>0.2623065033256284</v>
       </c>
       <c r="Q16">
-        <v>4.738506982466889</v>
+        <v>17.84586981146667</v>
       </c>
       <c r="R16">
-        <v>42.646562842202</v>
+        <v>160.6128283032</v>
       </c>
       <c r="S16">
-        <v>0.04627495996546285</v>
+        <v>0.001755956043876136</v>
       </c>
       <c r="T16">
-        <v>0.05357706393197714</v>
+        <v>0.0018002459298962</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,25 +1464,25 @@
         <v>24</v>
       </c>
       <c r="D17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.02542733333333333</v>
+        <v>0.1188766666666667</v>
       </c>
       <c r="H17">
-        <v>0.076282</v>
+        <v>0.35663</v>
       </c>
       <c r="I17">
-        <v>0.1261176361664418</v>
+        <v>0.006863138759702679</v>
       </c>
       <c r="J17">
-        <v>0.1429537886070991</v>
+        <v>0.006863138759702677</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>29.9633245</v>
+        <v>32.469223</v>
       </c>
       <c r="N17">
-        <v>59.926649</v>
+        <v>64.938446</v>
       </c>
       <c r="O17">
-        <v>0.05899558591371686</v>
+        <v>0.05533777012737728</v>
       </c>
       <c r="P17">
-        <v>0.04017364805949665</v>
+        <v>0.03782235733776705</v>
       </c>
       <c r="Q17">
-        <v>0.7618874398363333</v>
+        <v>3.859832999496667</v>
       </c>
       <c r="R17">
-        <v>4.571324639018</v>
+        <v>23.15899799698</v>
       </c>
       <c r="S17">
-        <v>0.007440383839692203</v>
+        <v>0.00037979079503672</v>
       </c>
       <c r="T17">
-        <v>0.005742975192273283</v>
+        <v>0.000259580086628154</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,25 +1526,25 @@
         <v>24</v>
       </c>
       <c r="D18" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.02542733333333333</v>
+        <v>0.1188766666666667</v>
       </c>
       <c r="H18">
-        <v>0.076282</v>
+        <v>0.35663</v>
       </c>
       <c r="I18">
-        <v>0.1261176361664418</v>
+        <v>0.006863138759702679</v>
       </c>
       <c r="J18">
-        <v>0.1429537886070991</v>
+        <v>0.006863138759702677</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>6.253715333333333</v>
+        <v>52.09024033333333</v>
       </c>
       <c r="N18">
-        <v>18.761146</v>
+        <v>156.270721</v>
       </c>
       <c r="O18">
-        <v>0.01231310631861278</v>
+        <v>0.08877815602319267</v>
       </c>
       <c r="P18">
-        <v>0.0125771036621259</v>
+        <v>0.09101737745760805</v>
       </c>
       <c r="Q18">
-        <v>0.1590153043524444</v>
+        <v>6.192314136692222</v>
       </c>
       <c r="R18">
-        <v>1.431137739172</v>
+        <v>55.73082723022999</v>
       </c>
       <c r="S18">
-        <v>0.001552899862769522</v>
+        <v>0.0006092968036177054</v>
       </c>
       <c r="T18">
-        <v>0.001797944618205118</v>
+        <v>0.0006246648910357985</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,22 +1591,22 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.02542733333333333</v>
+        <v>0.1188766666666667</v>
       </c>
       <c r="H19">
-        <v>0.076282</v>
+        <v>0.35663</v>
       </c>
       <c r="I19">
-        <v>0.1261176361664418</v>
+        <v>0.006863138759702679</v>
       </c>
       <c r="J19">
-        <v>0.1429537886070991</v>
+        <v>0.006863138759702677</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>143.6051993333333</v>
+        <v>201.5345866666667</v>
       </c>
       <c r="N19">
-        <v>430.815598</v>
+        <v>604.60376</v>
       </c>
       <c r="O19">
-        <v>0.2827480934208786</v>
+        <v>0.3434783342267227</v>
       </c>
       <c r="P19">
-        <v>0.2888103122968479</v>
+        <v>0.3521417722019025</v>
       </c>
       <c r="Q19">
-        <v>3.651497271848444</v>
+        <v>23.95775988097778</v>
       </c>
       <c r="R19">
-        <v>32.863475446636</v>
+        <v>215.6198389288</v>
       </c>
       <c r="S19">
-        <v>0.03565952117280947</v>
+        <v>0.002357339468749532</v>
       </c>
       <c r="T19">
-        <v>0.04128652833163389</v>
+        <v>0.002416797845709268</v>
       </c>
     </row>
   </sheetData>
